--- a/biology/Botanique/Festival_des_forêts/Festival_des_forêts.xlsx
+++ b/biology/Botanique/Festival_des_forêts/Festival_des_forêts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Festival_des_for%C3%AAts</t>
+          <t>Festival_des_forêts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Festival des Forêts, créé par Bruno Ory-Lavollée en 1992, implanté à Compiègne (Oise, Hauts-de-France), a lieu chaque année entre le 20 juin et le 20 juillet.
 Le Festival des Forêts propose de la musique classique dans les décors naturels des forêts de Laigue et de Compiègne et imaginé le concert-randonnée. Il invite des musiciens qui ouvrent la musique classique à de nouvelles perspectives grâce à la mise en scène : François-René Duchâble, Laurent Korcia, François Leleux, Dana Ciocarlie, Henri Demarquette, Jean-Marc Luisada, Gustav Leonhardt, Lucas Thomas... 
